--- a/feature-eng-data/ONS Used Datasets/Level 2 - Energy Intensity.xlsx
+++ b/feature-eng-data/ONS Used Datasets/Level 2 - Energy Intensity.xlsx
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Industry groups'!$A$13:$D$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Purchases, industry sections'!$A$16:$H$34</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2529,6 +2529,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26346,7 +26350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555DDA38-22F8-47D7-A0B7-175B7BB35833}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27301,12 +27307,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">4434</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27449,18 +27455,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">4434</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AEFD8B-04F3-4AF3-921B-AC4B572481FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A225A33E-1A0E-4759-88FC-B10F3FE07E25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27485,18 +27500,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A225A33E-1A0E-4759-88FC-B10F3FE07E25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AEFD8B-04F3-4AF3-921B-AC4B572481FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>